--- a/Form Fields/fieldsAndAttributesKU.xlsx
+++ b/Form Fields/fieldsAndAttributesKU.xlsx
@@ -1,18 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgood\Documents\Projects\strabo-documents\Form Fields\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1428" yWindow="192" windowWidth="25812" windowHeight="7428" activeTab="5"/>
+    <workbookView xWindow="1425" yWindow="195" windowWidth="25815" windowHeight="7425"/>
   </bookViews>
   <sheets>
-    <sheet name="Attitudes" sheetId="1" r:id="rId1"/>
+    <sheet name="structureOrientation" sheetId="6" r:id="rId1"/>
     <sheet name="Contact" sheetId="2" r:id="rId2"/>
     <sheet name="fold trace" sheetId="3" r:id="rId3"/>
     <sheet name="Notes" sheetId="4" r:id="rId4"/>
     <sheet name="RockUnitPoint" sheetId="5" r:id="rId5"/>
-    <sheet name="planarAttitude" sheetId="6" r:id="rId6"/>
+    <sheet name="Attitudes (all)" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -22,9 +27,297 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Stephen Richard</author>
+    <author>Jessica Alisdairi</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Stephen Richard:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+0&lt;=strike&lt;=360; in project configuration probably want a way to adjust these limits depending on the azimuth conventions being used.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Stephen Richard:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+-90&lt;=dip&lt;=90
+if dip = 90 or -90, then plane facing is vertical
+otherwise plane facing is {upright, overturned, unknown}
+Since we are starting with requirement that orientation is reported using 0-360 azimuth and right hand rule, don't need to include a dip-quadrant text field, but we might need to add this...</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Stephen Richard:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+start with text box, but in the long run this should access a list of known geolgoic units that the geo might put in with configuration, and/or be adding to during the mapping program. Selecting the unit should populate both the unit_name and label, but allow the label to be modified (sometimes we start subdividing what we thought was a single unit in the course of figuring out the geology)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Stephen Richard:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+in configuration for project might want to set the default for facing direction to either upright or unknown.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Stephen Richard:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+instead of vertical, if can set up combo to allow free text, then on data entry for vertical planar feature geologist woul duse their convention to record facing direction</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A13" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jessica Alisdairi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+linear feature</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C13" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jessica Alisdairi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+0-360</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D13" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jessica Alisdairi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+-90-+90</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A25" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jessica Alisdairi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+planar and linear coupled</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A26" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jessica Alisdairi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Two planar observations</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Jessica Alisdairi</author>
+  </authors>
+  <commentList>
+    <comment ref="I13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jessica Alisdairi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+these have to do with mapped outcrop traces, not orientation measures</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Stephen Richard</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +341,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="0">
+    <comment ref="F4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -72,7 +365,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F6" authorId="0">
+    <comment ref="F6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -96,7 +389,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0">
+    <comment ref="F7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -120,7 +413,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F8" authorId="0">
+    <comment ref="F8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -148,141 +441,8 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Stephen Richard</author>
-  </authors>
-  <commentList>
-    <comment ref="C1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Stephen Richard:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-0&lt;=strike&lt;=360; in project configuration probably want a way to adjust these limits depending on the azimuth conventions being used.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Stephen Richard:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
--90&lt;=dip&lt;=90
-if dip = 90 or -90, then plane facing is vertical
-otherwise plane facing is {upright, overturned, unknown}
-Since we are starting with requirement that orientation is reported using 0-360 azimuth and right hand rule, don't need to include a dip-quadrant text field, but we might need to add this...</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Stephen Richard:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-start with text box, but in the long run this should access a list of known geolgoic units that the geo might put in with configuration, and/or be adding to during the mapping program. Selecting the unit should populate both the unit_name and label, but allow the label to be modified (sometimes we start subdividing what we thought was a single unit in the course of figuring out the geology)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Stephen Richard:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-in configuration for project might want to set the default for facing direction to either upright or unknown.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Stephen Richard:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-instead of vertical, if can set up combo to allow free text, then on data entry for vertical planar feature geologist woul duse their convention to record facing direction</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="254">
   <si>
     <t>attitude_type</t>
   </si>
@@ -977,17 +1137,80 @@
     <t>radio button</t>
   </si>
   <si>
-    <t>combo, checkbox, or text</t>
-  </si>
-  <si>
     <t>combo or checkbox</t>
+  </si>
+  <si>
+    <t>Fold Hinge</t>
+  </si>
+  <si>
+    <t>Foliation with lineation</t>
+  </si>
+  <si>
+    <t>Bedding with cleavage</t>
+  </si>
+  <si>
+    <t>stretching lineation</t>
+  </si>
+  <si>
+    <t>slicken side striae</t>
+  </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>accurate</t>
+  </si>
+  <si>
+    <t>irregular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trend </t>
+  </si>
+  <si>
+    <t>memo</t>
+  </si>
+  <si>
+    <t>directed</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>Vergence</t>
+  </si>
+  <si>
+    <t>Fold Type</t>
+  </si>
+  <si>
+    <t>sel one</t>
+  </si>
+  <si>
+    <t>Fold Detail</t>
+  </si>
+  <si>
+    <t>sel 1</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Fault Type</t>
+  </si>
+  <si>
+    <t>Fault Type vocabulary</t>
+  </si>
+  <si>
+    <t>fault  thickenss</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1032,13 +1255,52 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1054,7 +1316,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1068,6 +1330,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1078,6 +1349,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1126,7 +1400,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1161,7 +1435,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1370,482 +1644,436 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" customWidth="1"/>
-    <col min="2" max="2" width="24.109375" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.44140625" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5546875" customWidth="1"/>
-    <col min="14" max="14" width="16.77734375" customWidth="1"/>
-    <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
+        <v>246</v>
+      </c>
+      <c r="L1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="E2" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="G2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="17"/>
+      <c r="H3" s="18"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="M8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="D13" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="E13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="L15" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="L16" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L17" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="L18" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="H9" s="1" t="s">
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="1" t="s">
+      <c r="L19" s="18"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="1" t="s">
+      <c r="L20" s="18"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="G13" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="G14" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="G15" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="G16" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G17" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G18" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G19" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G20" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="L21" s="18"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P24" s="9"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="B25" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>40</v>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E26"/>
+      <selection activeCell="I12" sqref="I12:I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>75</v>
       </c>
@@ -1862,7 +2090,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>79</v>
       </c>
@@ -1879,7 +2107,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>82</v>
       </c>
@@ -1894,7 +2122,7 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>85</v>
       </c>
@@ -1909,7 +2137,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>87</v>
       </c>
@@ -1924,7 +2152,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>90</v>
       </c>
@@ -1939,7 +2167,7 @@
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>93</v>
@@ -1950,7 +2178,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
         <v>94</v>
@@ -1959,7 +2187,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>95</v>
@@ -1968,7 +2196,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
         <v>96</v>
@@ -1977,7 +2205,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>97</v>
@@ -1986,7 +2214,7 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
         <v>98</v>
@@ -1995,7 +2223,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
         <v>99</v>
@@ -2003,8 +2231,11 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I13" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>100</v>
@@ -2012,8 +2243,11 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I14" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
         <v>54</v>
@@ -2021,8 +2255,11 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I15" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>101</v>
@@ -2030,59 +2267,76 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="I16" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="I17" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="I18" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="I19" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="I20" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="I21" s="9"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>110</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2091,17 +2345,17 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E12"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>111</v>
       </c>
@@ -2118,7 +2372,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>24</v>
       </c>
@@ -2135,7 +2389,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>32</v>
       </c>
@@ -2148,7 +2402,7 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>38</v>
       </c>
@@ -2161,7 +2415,7 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>45</v>
       </c>
@@ -2174,7 +2428,7 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>51</v>
       </c>
@@ -2187,7 +2441,7 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>55</v>
       </c>
@@ -2200,7 +2454,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>58</v>
       </c>
@@ -2211,7 +2465,7 @@
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>62</v>
       </c>
@@ -2222,7 +2476,7 @@
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>66</v>
       </c>
@@ -2231,7 +2485,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>70</v>
       </c>
@@ -2240,7 +2494,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>74</v>
       </c>
@@ -2262,14 +2516,14 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.77734375" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>115</v>
       </c>
@@ -2286,7 +2540,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>26</v>
       </c>
@@ -2316,15 +2570,15 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.21875" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>119</v>
       </c>
@@ -2350,7 +2604,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>124</v>
       </c>
@@ -2376,7 +2630,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>129</v>
       </c>
@@ -2396,7 +2650,7 @@
       </c>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>134</v>
       </c>
@@ -2416,7 +2670,7 @@
       </c>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>139</v>
       </c>
@@ -2436,7 +2690,7 @@
       </c>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9" t="s">
         <v>144</v>
@@ -2454,7 +2708,7 @@
       </c>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="9" t="s">
         <v>148</v>
@@ -2472,7 +2726,7 @@
       </c>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="9" t="s">
         <v>152</v>
@@ -2490,7 +2744,7 @@
       </c>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="9" t="s">
         <v>156</v>
@@ -2506,7 +2760,7 @@
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="9" t="s">
         <v>159</v>
@@ -2522,7 +2776,7 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="9" t="s">
         <v>162</v>
@@ -2536,7 +2790,7 @@
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="9" t="s">
         <v>164</v>
@@ -2550,7 +2804,7 @@
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="9" t="s">
         <v>166</v>
@@ -2564,7 +2818,7 @@
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="9" t="s">
         <v>168</v>
@@ -2578,7 +2832,7 @@
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="9" t="s">
         <v>170</v>
@@ -2592,7 +2846,7 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="9" t="s">
         <v>172</v>
@@ -2604,277 +2858,277 @@
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="9" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="9" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="9" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="9" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="9" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="9" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="9" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="9" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="9" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="9" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="9" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="9" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="9" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="9" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="9" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="9" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="9" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="9" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="9" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="9" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="9" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="9" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="9" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="9" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="9" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="9" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="9" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="9" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="9" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="9" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="9" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="9" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="9" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="9" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="9" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="9" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="9" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="9" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="9" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="9" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="9" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="9" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="9" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="9" t="s">
         <v>227</v>
       </c>
@@ -2886,188 +3140,457 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" customWidth="1"/>
-    <col min="6" max="6" width="21.77734375" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" customWidth="1"/>
+    <col min="14" max="14" width="16.7109375" customWidth="1"/>
+    <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" t="s">
+      <c r="P2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s">
-        <v>232</v>
-      </c>
-      <c r="F1" t="s">
-        <v>231</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="9" t="s">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F3" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="9" t="s">
+      <c r="H3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F4" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="9" t="s">
+      <c r="H4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F5" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9" t="s">
+      <c r="H5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9" t="s">
+      <c r="F6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9" t="s">
+      <c r="F7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+      <c r="B10" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G13" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G14" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G15" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G16" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>34</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
